--- a/Quant/Prelim_Manual plots/Syllable_data.xlsx
+++ b/Quant/Prelim_Manual plots/Syllable_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\Semester 7\BI4313 Sem Project\IN-comparative-analysis\IN-comparative-analysis\Quant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4th Year\Semester 7\BI4313 Sem Project\IN-comparative-analysis\IN-comparative-analysis\Quant\Prelim_Manual plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E29EBD-43AA-4094-8422-B5C0866425F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F7CE7-08C1-4B10-B538-CCC1AA584234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Bird</t>
   </si>
@@ -128,9 +128,6 @@
     <t>ZF_y67b42</t>
   </si>
   <si>
-    <t>ZF_y74b01</t>
-  </si>
-  <si>
     <t>ZF_y95y29</t>
   </si>
   <si>
@@ -147,6 +144,15 @@
   </si>
   <si>
     <t>ZF_g21o41</t>
+  </si>
+  <si>
+    <t>BF_o27y19</t>
+  </si>
+  <si>
+    <t>JF_y22g08</t>
+  </si>
+  <si>
+    <t>ZF_o01w58</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -507,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -588,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="0">E3/C3</f>
+        <f t="shared" ref="F3:F24" si="0">E3/C3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="G3">
@@ -607,7 +613,7 @@
         <v>0.8</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L22" si="1">AVERAGE(J3, K3)</f>
+        <f t="shared" ref="L3:L24" si="1">AVERAGE(J3, K3)</f>
         <v>0.63500000000000001</v>
       </c>
       <c r="M3">
@@ -1003,50 +1009,50 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="G13">
-        <v>2.2799999999999998</v>
+        <v>2.82</v>
       </c>
       <c r="H13">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J13">
-        <v>0.35</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.69</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="M13">
-        <v>11.23</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1055,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1065,160 +1071,160 @@
         <v>0.3</v>
       </c>
       <c r="G14">
-        <v>2.14</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H14">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>0.56499999999999995</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="M14">
-        <v>8.48</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.3</v>
       </c>
       <c r="G15">
-        <v>2.0299999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="H15">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="K15">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.62</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="M15">
-        <v>6.3</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G16">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H16">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J16">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="M16">
-        <v>7.54</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G17">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J17">
+        <v>0.38</v>
+      </c>
+      <c r="K17">
+        <v>0.68</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-      <c r="K17">
-        <v>0.8</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>0.66500000000000004</v>
-      </c>
       <c r="M17">
-        <v>5.3</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1227,41 +1233,41 @@
         <v>9</v>
       </c>
       <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G18">
+        <v>3.2</v>
+      </c>
+      <c r="H18">
+        <v>0.08</v>
+      </c>
+      <c r="I18">
         <v>19</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G18">
-        <v>1.64</v>
-      </c>
-      <c r="H18">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I18">
-        <v>22</v>
-      </c>
       <c r="J18">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="K18">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>0.62</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="M18">
-        <v>6.45</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1270,165 +1276,251 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G19">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="H19">
-        <v>6.7000000000000004E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J19">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="K19">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.58499999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="M19">
-        <v>7.3</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="H20">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J20">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="K20">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.59499999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="M20">
-        <v>8.65</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>11</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="G21">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I21">
         <v>21</v>
       </c>
       <c r="J21">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="K21">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0.45499999999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="M21">
-        <v>12.81</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G22">
+        <v>1.45</v>
+      </c>
+      <c r="H22">
+        <v>0.23</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>0.32</v>
+      </c>
+      <c r="K22">
+        <v>0.59</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.45499999999999996</v>
+      </c>
+      <c r="M22">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>1.8</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.25</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>15</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.48</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>0.66</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>8.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G24">
+        <v>1.75</v>
+      </c>
+      <c r="H24">
+        <v>0.18</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>0.38</v>
+      </c>
+      <c r="K24">
+        <v>0.67</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M24">
+        <v>12.65</v>
       </c>
     </row>
   </sheetData>
